--- a/assign2_results/assignment2_mb_results.xlsx
+++ b/assign2_results/assignment2_mb_results.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="OpenMP" sheetId="1" r:id="rId1"/>
-    <sheet name="Serial MB" sheetId="2" r:id="rId2"/>
+    <sheet name="Serial MB" sheetId="2" r:id="rId1"/>
+    <sheet name="OpenMP" sheetId="1" r:id="rId2"/>
+    <sheet name="MPI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>TIME</t>
   </si>
@@ -97,6 +98,60 @@
   <si>
     <t>% util</t>
   </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>5000 Particles</t>
+  </si>
+  <si>
+    <t>100000 Particles</t>
+  </si>
+  <si>
+    <t>1000000 Particles</t>
+  </si>
+  <si>
+    <t>Computation</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>1 Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 Cores</t>
+  </si>
+  <si>
+    <t>12 Cores</t>
+  </si>
+  <si>
+    <t>24 Cores</t>
+  </si>
+  <si>
+    <t>48 Cores</t>
+  </si>
+  <si>
+    <t>96 Cores</t>
+  </si>
+  <si>
+    <t>120 Cores</t>
+  </si>
+  <si>
+    <t>240 Cores</t>
+  </si>
+  <si>
+    <t>n=5000</t>
+  </si>
+  <si>
+    <t>n=100000</t>
+  </si>
+  <si>
+    <t>n=1000000</t>
+  </si>
+  <si>
+    <t>Synchronization</t>
+  </si>
 </sst>
 </file>
 
@@ -131,9 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,6 +221,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Microblocks has Roughly O(n) Scaling</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -173,26 +256,21 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$B$4</c:f>
+              <c:f>'Serial MB'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 Thread</c:v>
+                  <c:v>Time (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$A$5:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:f>'Serial MB'!$A$5:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -200,15 +278,12 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>20000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
@@ -216,327 +291,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$B$5:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>16.119</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.091000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201.953</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>414.84199999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>919.18700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2839.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenMP!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>OpenMP!$A$5:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>OpenMP!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.443</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.941000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>130.50400000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>274.48699999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>794.48900000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenMP!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>OpenMP!$A$5:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>OpenMP!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.7969999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.7959999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.072000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.325000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>165.971</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>390.072</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenMP!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>OpenMP!$A$5:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>OpenMP!$E$5:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.5789999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.884999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100.503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>234.83599999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenMP!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24 Threads</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>OpenMP!$A$5:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>OpenMP!$F$5:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6.3559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.9190000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44.828000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>86.36399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>195.92000000000002</c:v>
+              <c:f>'Serial MB'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.621000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>416.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>917.04600000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2831.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109126208"/>
-        <c:axId val="109126784"/>
+        <c:axId val="96283456"/>
+        <c:axId val="96284608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109126208"/>
+        <c:axId val="96283456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -570,11 +342,1337 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of Particles Simulated</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96284608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96284608"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96283456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI MB Scales by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> O(n/p) for Large n</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$33:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$33:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15.709000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.406000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$33:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$C$33:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>204.04400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.586999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$33:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$D$33:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>418.935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.89399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.172999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.844999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$33:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$E$33:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2863.2200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>754.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182.096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.041000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$33:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$F$33:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8130.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2135.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>727.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>254.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.79900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116.01300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106.027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$33:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$G$33:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24785.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8490.119999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4190.6100000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2065.2599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1036.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>811.22799999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>362.71100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="96281728"/>
+        <c:axId val="96281152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96281728"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Cores (log scaling)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96281152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96281152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Simulation Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96281728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>In MPI, Higher n Stabalizes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Flops Dependence on p</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$60:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1759170000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82314200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35277500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26948100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14699000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$61:$I$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1759170000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2699910000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.783945</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66145299999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35277500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.117592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1981000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$62:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2039150000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.181262</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94661300000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85743999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49649799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28703800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.171488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4073000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$63:$I$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.715418</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67228399999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.925261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.004429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82640800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.440969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.273891</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16873199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$64:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.59374400000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57683099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.583395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86460099999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95665800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46810600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41442899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24542800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$65:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.47426499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48194100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48780299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49542199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.506212</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.504436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50591799999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.550207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117477312"/>
+        <c:axId val="117476736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117477312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Cores</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -586,18 +1684,24 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109126784"/>
+        <c:crossAx val="117476736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109126784"/>
+        <c:axId val="117476736"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -605,17 +1709,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Floating Point Util. (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -626,9 +1725,426 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109126208"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117477312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI, n=10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$G$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$F$86:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$G$86:$G$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$H$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$F$86:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$H$86:$H$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$I$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$F$86:$F$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$I$86:$I$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.07</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141330112"/>
+        <c:axId val="141330688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141330112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141330688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141330688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141330112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -640,6 +2156,817 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n=100000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$B$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$96:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$96:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$C$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$96:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$C$96:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$D$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$96:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$D$96:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="140651328"/>
+        <c:axId val="141300224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="140651328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141300224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141300224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140651328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MPI, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n=1000000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$G$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Synchronization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$F$96:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$G$96:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$H$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Computation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$F$96:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$H$96:$H$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$I$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$F$96:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$I$96:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="141334720"/>
+        <c:axId val="141335296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="141334720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141335296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="141335296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141334720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -662,6 +2989,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Serial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> MB Flops Drops with n</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -673,211 +3024,59 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$A$28</c:f>
+              <c:f>'Serial MB'!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500 Particles</c:v>
+                  <c:v>% util</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$B$27:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
+              <c:f>'Serial MB'!$A$23:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$B$28:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>16.119</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4850000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7969999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5789999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.3559999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenMP!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10000 Particles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>OpenMP!$B$27:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>OpenMP!$B$29:$G$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>414.84199999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>130.50400000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77.325000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51.884999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44.828000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenMP!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40000 Particles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>OpenMP!$B$27:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>OpenMP!$B$30:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2839.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>794.48900000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>390.072</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>234.83599999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>195.92000000000002</c:v>
+              <c:f>'Serial MB'!$C$23:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6000235183443086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5980362182502352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1760465663217308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0603951081843839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68019755409219196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,13 +3091,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109129088"/>
-        <c:axId val="109129664"/>
+        <c:axId val="96286912"/>
+        <c:axId val="96287488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109129088"/>
+        <c:axId val="96286912"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -909,11 +3110,67 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Processors</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Particles Simulated</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96287488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96287488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Floating Point Util. (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -925,60 +3182,30 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109129664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="109129664"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Simulation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Time (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109129088"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96286912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1001,6 +3228,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Open</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>MP MB still scales by O(n)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1012,64 +3263,65 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$A$59</c:f>
+              <c:f>OpenMP!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1 Thread</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$B$58:$F$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
+              <c:f>OpenMP!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$B$59:$F$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.6265757290686738</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1096307619943557</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80392756349952965</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50463311382878651</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35111712135465667</c:v>
+              <c:f>OpenMP!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>414.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>919.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2839.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,64 +3333,65 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$A$60</c:f>
+              <c:f>OpenMP!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10000</c:v>
+                  <c:v>4 Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$B$58:$F$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
+              <c:f>OpenMP!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$B$60:$F$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.184607243650047</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96499294449670747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8293508936970837</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.65124647224835375</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5122765757290686</c:v>
+              <c:f>OpenMP!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.50400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274.48699999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>794.48900000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,64 +3403,205 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$A$61</c:f>
+              <c:f>OpenMP!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40000</c:v>
+                  <c:v>8 Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$B$58:$F$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
+              <c:f>OpenMP!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$B$61:$F$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.6874412041392286</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61529868297271872</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36666274694261525</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52469426152398868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4044802445907808</c:v>
+              <c:f>OpenMP!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7959999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.072000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165.971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390.072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234.83599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.828000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.36399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.92000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,13 +3616,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="109131968"/>
-        <c:axId val="109132544"/>
+        <c:axId val="96311488"/>
+        <c:axId val="96312640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109131968"/>
+        <c:axId val="96311488"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1239,11 +3635,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Processors</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Particles Simulated</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1253,15 +3649,26 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109132544"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96312640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109132544"/>
+        <c:axId val="96312640"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1273,12 +3680,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Floating Point Util. (%)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Simulation</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1287,9 +3699,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109131968"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1298,11 +3720,26 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1336,8 +3773,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time Spent in OpenMP when n=10000</a:t>
+              <a:t>OpenMP MB Scales</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Roughly by O(n/p) for p≤8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1355,26 +3797,21 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$H$82</c:f>
+              <c:f>OpenMP!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Force</c:v>
+                  <c:v>500 Particles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$G$83:$G$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>OpenMP!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1385,9 +3822,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1395,24 +3835,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$H$83:$H$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>67.737173717371732</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.05030614442633</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.83923543641194</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54.535972882443787</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.001893043066737</c:v>
+              <c:f>OpenMP!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4330000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5789999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,26 +3867,21 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$I$82</c:f>
+              <c:f>OpenMP!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Move</c:v>
+                  <c:v>10000 Particles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$G$83:$G$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>OpenMP!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1454,9 +3892,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1464,24 +3905,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$I$83:$I$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>17.839063906390638</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.756992092550998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.025419359955588</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35.090358425095772</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.447704685281593</c:v>
+              <c:f>OpenMP!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>414.84199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130.50400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.978999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.828000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,26 +3937,21 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$J$82</c:f>
+              <c:f>OpenMP!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Migrate</c:v>
+                  <c:v>40000 Particles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>OpenMP!$G$83:$G$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+              <c:f>OpenMP!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1523,9 +3962,12 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
@@ -1533,24 +3975,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpenMP!$J$83:$J$87</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>14.423762376237622</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.192701763022676</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.13534520363247</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.373668692460436</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5504022716516808</c:v>
+              <c:f>OpenMP!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2839.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>794.48900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390.072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>282.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>234.83599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.92000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,12 +4010,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129500288"/>
-        <c:axId val="129500864"/>
+        <c:axId val="117548736"/>
+        <c:axId val="117549312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129500288"/>
+        <c:axId val="117548736"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1582,12 +4028,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Processors</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads (log scaling)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1596,20 +4049,30 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129500864"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117549312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129500864"/>
+        <c:axId val="117549312"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1617,12 +4080,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>% Time Spent</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Simulation</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1631,9 +4099,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129500288"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117548736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1642,11 +4120,26 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1669,7 +4162,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>In OpenMP,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> More Threads Reduces Flops</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1680,64 +4197,187 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Serial MB'!$C$4</c:f>
+              <c:f>OpenMP!$A$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time (ms)</c:v>
+                  <c:v>500 Particles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Serial MB'!$A$5:$A$9</c:f>
+              <c:f>OpenMP!$B$58:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Serial MB'!$C$5:$C$9</c:f>
+              <c:f>OpenMP!$B$59:$F$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.621000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>416.85599999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>917.04600000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2831.69</c:v>
+                  <c:v>1.6265757290686738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1096307619943557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80392756349952965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50463311382878651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35111712135465667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$B$60:$F$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.184607243650047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96499294449670747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8293508936970837</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65124647224835375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5122765757290686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40000 Particles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$B$58:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$B$61:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6874412041392286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61529868297271872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36666274694261525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52469426152398868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4044802445907808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,15 +4392,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129503168"/>
-        <c:axId val="129503744"/>
+        <c:axId val="117551616"/>
+        <c:axId val="117552192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129503168"/>
+        <c:axId val="117551616"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1771,11 +4410,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Particles Simulated</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1787,19 +4426,28 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129503744"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117552192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129503744"/>
+        <c:axId val="117552192"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1807,11 +4455,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Floating Point Util. (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1823,15 +4471,45 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129503168"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117551616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1854,7 +4532,32 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>OpenMP, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n=10000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1865,64 +4568,187 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Serial MB'!$C$22</c:f>
+              <c:f>OpenMP!$H$82</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>% util</c:v>
+                  <c:v>Force</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Serial MB'!$A$23:$A$27</c:f>
+              <c:f>OpenMP!$G$83:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40000</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Serial MB'!$C$23:$C$27</c:f>
+              <c:f>OpenMP!$H$83:$H$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6000235183443086</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5980362182502352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1760465663217308</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0603951081843839</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.68019755409219196</c:v>
+                  <c:v>67.737173717371732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.05030614442633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.83923543641194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.535972882443787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.001893043066737</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$I$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Move</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$83:$G$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$I$83:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.839063906390638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.756992092550998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.025419359955588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.090358425095772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.447704685281593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$J$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Migrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$83:$G$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$J$83:$J$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.423762376237622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.192701763022676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.13534520363247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.373668692460436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5504022716516808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,11 +4763,1411 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129505472"/>
-        <c:axId val="129506048"/>
+        <c:axId val="117554496"/>
+        <c:axId val="117325824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129505472"/>
+        <c:axId val="117554496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117325824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="117325824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>% Time Spent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117554496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP, n=500</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$H$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$76:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$H$76:$H$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>75.669467051719607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.035392735175407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.230629814227456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.151345860843072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.657223796034003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$I$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Move</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$76:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$I$76:$I$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.936466264111315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.834523439925491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.467603081105572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.136109700355515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.157095029616276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$J$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Migrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$76:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$J$76:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.394066684169072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.130083824899099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.301767104666967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.712544438801425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.185681174349732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="125255680"/>
+        <c:axId val="140648448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125255680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140648448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140648448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>% Time Spent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125255680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>OpenMP, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n=40000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$H$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Force</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$90:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$H$90:$H$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>58.411965177056324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.560134686281359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.553468441969137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.11555364990889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.109252177870559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$I$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Move</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$90:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$I$90:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.87750727604455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.550575814278972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.216196081352905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.592989602315363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.713935898133535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenMP!$J$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Migrate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OpenMP!$G$90:$G$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OpenMP!$J$90:$J$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.710527546899122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.889289499439652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.230335476677963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.291456747775754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.176811923995905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117475008"/>
+        <c:axId val="140653056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117475008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140653056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="140653056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>% Time Spent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117475008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI MB has Roughly O(n) Scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 Core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15.709000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.04400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>418.935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2863.2200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8130.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 4 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.89399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>754.99599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2135.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24785.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.2880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.231999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>182.096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>727.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8490.119999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.908999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4190.6100000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.79900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2065.2599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>96 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$G$5:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>22.349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.172999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.66200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1036.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>120 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$H$5:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>26.806000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.382999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.01300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>811.22799999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPI!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>240 Cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPI!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPI!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>33.586999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.041000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>362.71100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="117386624"/>
+        <c:axId val="117386048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="117386624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1956,51 +6182,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Particles Simulated</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129506048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="129506048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Floating Point Utio. (%)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number of Particles Simulated</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2010,17 +6196,99 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129505472"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117386048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="117386048"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Simulation Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2030,6 +6298,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2064,15 +6397,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2127,16 +6460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2155,27 +6488,91 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171452</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2193,19 +6590,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2215,6 +6612,132 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819149</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2510,10 +7033,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>1.5429999999999999E-2</v>
+      </c>
+      <c r="C5">
+        <f>B5*1000</f>
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>3.1621000000000003E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C9" si="0">B6*1000</f>
+        <v>31.621000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7">
+        <v>0.416856</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>416.85599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20000</v>
+      </c>
+      <c r="B8">
+        <v>0.91704600000000003</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>917.04600000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>40000</v>
+      </c>
+      <c r="B9">
+        <v>2.83169</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2831.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <v>136.066</v>
+      </c>
+      <c r="C23">
+        <f>B23/8504*100</f>
+        <v>1.6000235183443086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1000</v>
+      </c>
+      <c r="B24">
+        <v>135.89699999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C27" si="1">B24/8504*100</f>
+        <v>1.5980362182502352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10000</v>
+      </c>
+      <c r="B25">
+        <v>100.011</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.1760465663217308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20000</v>
+      </c>
+      <c r="B26">
+        <v>90.176000000000002</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1.0603951081843839</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>40000</v>
+      </c>
+      <c r="B27">
+        <v>57.844000000000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.68019755409219196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2816,6 +7517,9 @@
       <c r="D28">
         <v>5.7969999999999997</v>
       </c>
+      <c r="E28">
+        <v>5.4330000000000007</v>
+      </c>
       <c r="F28">
         <v>5.5789999999999997</v>
       </c>
@@ -2836,6 +7540,9 @@
       <c r="D29">
         <v>77.325000000000003</v>
       </c>
+      <c r="E29">
+        <v>58.978999999999999</v>
+      </c>
       <c r="F29">
         <v>51.884999999999998</v>
       </c>
@@ -2856,6 +7563,9 @@
       <c r="D30">
         <v>390.072</v>
       </c>
+      <c r="E30">
+        <v>282.36099999999999</v>
+      </c>
       <c r="F30">
         <v>234.83599999999998</v>
       </c>
@@ -2985,8 +7695,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>500</v>
+      <c r="A59" t="s">
+        <v>11</v>
       </c>
       <c r="B59">
         <f>B53/8504*100</f>
@@ -3010,8 +7720,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>10000</v>
+      <c r="A60" t="s">
+        <v>12</v>
       </c>
       <c r="B60">
         <f t="shared" ref="B60:F60" si="1">B54/8504*100</f>
@@ -3035,8 +7745,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>40000</v>
+      <c r="A61" t="s">
+        <v>13</v>
       </c>
       <c r="B61">
         <f t="shared" ref="B61:F61" si="2">B55/8504*100</f>
@@ -3725,180 +8435,1097 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500</v>
       </c>
       <c r="B5">
-        <v>1.5429999999999999E-2</v>
+        <v>15.709000000000001</v>
       </c>
       <c r="C5">
-        <f>B5*1000</f>
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="D5">
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="E5">
+        <v>8.984</v>
+      </c>
+      <c r="F5">
+        <v>10.406000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="B6">
-        <v>3.1621000000000003E-2</v>
+        <v>204.04400000000001</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C9" si="0">B6*1000</f>
-        <v>31.621000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45.134</v>
+      </c>
+      <c r="D6">
+        <v>23.844000000000001</v>
+      </c>
+      <c r="E6">
+        <v>17.134</v>
+      </c>
+      <c r="F6">
+        <v>16.718</v>
+      </c>
+      <c r="G6">
+        <v>22.349</v>
+      </c>
+      <c r="H6">
+        <v>26.806000000000001</v>
+      </c>
+      <c r="I6">
+        <v>33.586999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000</v>
       </c>
       <c r="B7">
-        <v>0.416856</v>
+        <v>418.935</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>416.85599999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111.89399999999999</v>
+      </c>
+      <c r="D7">
+        <v>43.231999999999999</v>
+      </c>
+      <c r="E7">
+        <v>28.908999999999999</v>
+      </c>
+      <c r="F7">
+        <v>22.584</v>
+      </c>
+      <c r="G7">
+        <v>31.172999999999998</v>
+      </c>
+      <c r="H7">
+        <v>38.578000000000003</v>
+      </c>
+      <c r="I7">
+        <v>41.844999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B8">
-        <v>0.91704600000000003</v>
+        <v>2863.2200000000003</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>917.04600000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>754.99599999999998</v>
+      </c>
+      <c r="D8">
+        <v>182.096</v>
+      </c>
+      <c r="E8">
+        <v>84.006</v>
+      </c>
+      <c r="F8">
+        <v>54.366</v>
+      </c>
+      <c r="G8">
+        <v>59.344999999999999</v>
+      </c>
+      <c r="H8">
+        <v>71.382999999999996</v>
+      </c>
+      <c r="I8">
+        <v>71.041000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="B9">
-        <v>2.83169</v>
+        <v>8130.73</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2831.69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>2135.86</v>
+      </c>
+      <c r="D9">
+        <v>727.62</v>
+      </c>
+      <c r="E9">
+        <v>254.19499999999999</v>
+      </c>
+      <c r="F9">
+        <v>116.79900000000001</v>
+      </c>
+      <c r="G9">
+        <v>120.66200000000001</v>
+      </c>
+      <c r="H9">
+        <v>116.01300000000001</v>
+      </c>
+      <c r="I9">
+        <v>106.027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000000</v>
+      </c>
+      <c r="B10">
+        <v>100154</v>
+      </c>
+      <c r="C10">
+        <v>24785.9</v>
+      </c>
+      <c r="D10">
+        <v>8490.119999999999</v>
+      </c>
+      <c r="E10">
+        <v>4190.6100000000006</v>
+      </c>
+      <c r="F10">
+        <v>2065.2599999999998</v>
+      </c>
+      <c r="G10">
+        <v>1036.45</v>
+      </c>
+      <c r="H10">
+        <v>811.22799999999995</v>
+      </c>
+      <c r="I10">
+        <v>362.71100000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>15.709000000000001</v>
+      </c>
+      <c r="C33">
+        <v>204.04400000000001</v>
+      </c>
+      <c r="D33">
+        <v>418.935</v>
+      </c>
+      <c r="E33">
+        <v>2863.2200000000003</v>
+      </c>
+      <c r="F33">
+        <v>8130.73</v>
+      </c>
+      <c r="G33">
+        <v>100154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>7.6429999999999998</v>
+      </c>
+      <c r="C34">
+        <v>45.134</v>
+      </c>
+      <c r="D34">
+        <v>111.89399999999999</v>
+      </c>
+      <c r="E34">
+        <v>754.99599999999998</v>
+      </c>
+      <c r="F34">
+        <v>2135.86</v>
+      </c>
+      <c r="G34">
+        <v>24785.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="C35">
+        <v>23.844000000000001</v>
+      </c>
+      <c r="D35">
+        <v>43.231999999999999</v>
+      </c>
+      <c r="E35">
+        <v>182.096</v>
+      </c>
+      <c r="F35">
+        <v>727.62</v>
+      </c>
+      <c r="G35">
+        <v>8490.119999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>8.984</v>
+      </c>
+      <c r="C36">
+        <v>17.134</v>
+      </c>
+      <c r="D36">
+        <v>28.908999999999999</v>
+      </c>
+      <c r="E36">
+        <v>84.006</v>
+      </c>
+      <c r="F36">
+        <v>254.19499999999999</v>
+      </c>
+      <c r="G36">
+        <v>4190.6100000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>48</v>
+      </c>
+      <c r="B37">
+        <v>10.406000000000001</v>
+      </c>
+      <c r="C37">
+        <v>16.718</v>
+      </c>
+      <c r="D37">
+        <v>22.584</v>
+      </c>
+      <c r="E37">
+        <v>54.366</v>
+      </c>
+      <c r="F37">
+        <v>116.79900000000001</v>
+      </c>
+      <c r="G37">
+        <v>2065.2599999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>96</v>
+      </c>
+      <c r="C38">
+        <v>22.349</v>
+      </c>
+      <c r="D38">
+        <v>31.172999999999998</v>
+      </c>
+      <c r="E38">
+        <v>59.344999999999999</v>
+      </c>
+      <c r="F38">
+        <v>120.66200000000001</v>
+      </c>
+      <c r="G38">
+        <v>1036.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>120</v>
+      </c>
+      <c r="C39">
+        <v>26.806000000000001</v>
+      </c>
+      <c r="D39">
+        <v>38.578000000000003</v>
+      </c>
+      <c r="E39">
+        <v>71.382999999999996</v>
+      </c>
+      <c r="F39">
+        <v>116.01300000000001</v>
+      </c>
+      <c r="G39">
+        <v>811.22799999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>240</v>
+      </c>
+      <c r="C40">
+        <v>33.586999999999996</v>
+      </c>
+      <c r="D40">
+        <v>41.844999999999999</v>
+      </c>
+      <c r="E40">
+        <v>71.041000000000011</v>
+      </c>
+      <c r="F40">
+        <v>106.027</v>
+      </c>
+      <c r="G40">
+        <v>362.71100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>500</v>
-      </c>
-      <c r="B23">
-        <v>136.066</v>
-      </c>
-      <c r="C23">
-        <f>B23/8504*100</f>
-        <v>1.6000235183443086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1000</v>
-      </c>
-      <c r="B24">
-        <v>135.89699999999999</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24:C27" si="1">B24/8504*100</f>
-        <v>1.5980362182502352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>10000</v>
-      </c>
-      <c r="B25">
-        <v>100.011</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>1.1760465663217308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20000</v>
-      </c>
-      <c r="B26">
-        <v>90.176000000000002</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>1.0603951081843839</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>40000</v>
-      </c>
-      <c r="B27">
-        <v>57.844000000000001</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>0.68019755409219196</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <v>48</v>
+      </c>
+      <c r="G59">
+        <v>96</v>
+      </c>
+      <c r="H59">
+        <v>120</v>
+      </c>
+      <c r="I59">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>1.1759170000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.82314200000000004</v>
+      </c>
+      <c r="D60">
+        <v>0.35277500000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.26948100000000003</v>
+      </c>
+      <c r="F60">
+        <v>0.14699000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>1.1759170000000001</v>
+      </c>
+      <c r="C61">
+        <v>1.2699910000000001</v>
+      </c>
+      <c r="D61">
+        <v>0.783945</v>
+      </c>
+      <c r="E61">
+        <v>0.66145299999999996</v>
+      </c>
+      <c r="F61">
+        <v>0.35277500000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.131882</v>
+      </c>
+      <c r="H61">
+        <v>0.117592</v>
+      </c>
+      <c r="I61">
+        <v>6.1981000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>1.2039150000000001</v>
+      </c>
+      <c r="C62">
+        <v>1.181262</v>
+      </c>
+      <c r="D62">
+        <v>0.94661300000000004</v>
+      </c>
+      <c r="E62">
+        <v>0.85743999999999998</v>
+      </c>
+      <c r="F62">
+        <v>0.49649799999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.28703800000000002</v>
+      </c>
+      <c r="H62">
+        <v>0.171488</v>
+      </c>
+      <c r="I62">
+        <v>9.4073000000000004E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>0.715418</v>
+      </c>
+      <c r="C63">
+        <v>0.67228399999999999</v>
+      </c>
+      <c r="D63">
+        <v>0.925261</v>
+      </c>
+      <c r="E63">
+        <v>1.004429</v>
+      </c>
+      <c r="F63">
+        <v>0.82640800000000003</v>
+      </c>
+      <c r="G63">
+        <v>0.440969</v>
+      </c>
+      <c r="H63">
+        <v>0.273891</v>
+      </c>
+      <c r="I63">
+        <v>0.16873199999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>0.59374400000000005</v>
+      </c>
+      <c r="C64">
+        <v>0.57683099999999998</v>
+      </c>
+      <c r="D64">
+        <v>0.583395</v>
+      </c>
+      <c r="E64">
+        <v>0.86460099999999995</v>
+      </c>
+      <c r="F64">
+        <v>0.95665800000000001</v>
+      </c>
+      <c r="G64">
+        <v>0.46810600000000002</v>
+      </c>
+      <c r="H64">
+        <v>0.41442899999999999</v>
+      </c>
+      <c r="I64">
+        <v>0.24542800000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>0.47426499999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.48194100000000001</v>
+      </c>
+      <c r="D65">
+        <v>0.48780299999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.49542199999999997</v>
+      </c>
+      <c r="F65">
+        <v>0.506212</v>
+      </c>
+      <c r="G65">
+        <v>0.504436</v>
+      </c>
+      <c r="H65">
+        <v>0.50591799999999998</v>
+      </c>
+      <c r="I65">
+        <v>0.550207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85" t="s">
+        <v>31</v>
+      </c>
+      <c r="I85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>1</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C86" s="3">
+        <v>99.98</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="H86" s="3">
+        <v>99.99</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>4</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="C87" s="3">
+        <v>91.02</v>
+      </c>
+      <c r="D87" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="F87" s="2">
+        <v>4</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="H87" s="3">
+        <v>94.39</v>
+      </c>
+      <c r="I87" s="3">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="C88" s="3">
+        <v>64.66</v>
+      </c>
+      <c r="D88" s="3">
+        <v>15.54</v>
+      </c>
+      <c r="F88" s="2">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3">
+        <v>15.03</v>
+      </c>
+      <c r="H88" s="3">
+        <v>70.14</v>
+      </c>
+      <c r="I88" s="3">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>24</v>
+      </c>
+      <c r="B89" s="3">
+        <v>26.59</v>
+      </c>
+      <c r="C89" s="3">
+        <v>52.82</v>
+      </c>
+      <c r="D89" s="3">
+        <v>20.59</v>
+      </c>
+      <c r="F89" s="2">
+        <v>24</v>
+      </c>
+      <c r="G89" s="3">
+        <v>20.2</v>
+      </c>
+      <c r="H89" s="3">
+        <v>59.15</v>
+      </c>
+      <c r="I89" s="3">
+        <v>20.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>48</v>
+      </c>
+      <c r="B90" s="3">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="C90" s="3">
+        <v>39</v>
+      </c>
+      <c r="D90" s="3">
+        <v>23.95</v>
+      </c>
+      <c r="F90" s="2">
+        <v>48</v>
+      </c>
+      <c r="G90" s="3">
+        <v>27.34</v>
+      </c>
+      <c r="H90" s="3">
+        <v>46.17</v>
+      </c>
+      <c r="I90" s="3">
+        <v>26.49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>96</v>
+      </c>
+      <c r="B91" s="3">
+        <v>42.12</v>
+      </c>
+      <c r="C91" s="3">
+        <v>24.19</v>
+      </c>
+      <c r="D91" s="3">
+        <v>33.69</v>
+      </c>
+      <c r="F91" s="2">
+        <v>96</v>
+      </c>
+      <c r="G91" s="3">
+        <v>40.25</v>
+      </c>
+      <c r="H91" s="3">
+        <v>24.45</v>
+      </c>
+      <c r="I91" s="3">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>120</v>
+      </c>
+      <c r="B92" s="3">
+        <v>41.01</v>
+      </c>
+      <c r="C92" s="3">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="D92" s="3">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="F92" s="2">
+        <v>120</v>
+      </c>
+      <c r="G92" s="3">
+        <v>43.54</v>
+      </c>
+      <c r="H92" s="3">
+        <v>18.14</v>
+      </c>
+      <c r="I92" s="3">
+        <v>38.32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>240</v>
+      </c>
+      <c r="B93" s="3">
+        <v>39.01</v>
+      </c>
+      <c r="C93" s="3">
+        <v>14.35</v>
+      </c>
+      <c r="D93" s="3">
+        <v>46.64</v>
+      </c>
+      <c r="F93" s="2">
+        <v>240</v>
+      </c>
+      <c r="G93" s="3">
+        <v>33.97</v>
+      </c>
+      <c r="H93" s="3">
+        <v>13.96</v>
+      </c>
+      <c r="I93" s="3">
+        <v>52.07</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>1</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0</v>
+      </c>
+      <c r="C96" s="3">
+        <v>100</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="C97" s="3">
+        <v>99.2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F97" s="2">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="H97" s="3">
+        <v>99.69</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>12</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="C98" s="3">
+        <v>93.4</v>
+      </c>
+      <c r="D98" s="3">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F98" s="2">
+        <v>12</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="H98" s="3">
+        <v>98.46</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>24</v>
+      </c>
+      <c r="B99" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="C99" s="3">
+        <v>84.83</v>
+      </c>
+      <c r="D99" s="3">
+        <v>8.19</v>
+      </c>
+      <c r="F99" s="2">
+        <v>24</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="H99" s="3">
+        <v>96.48</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>48</v>
+      </c>
+      <c r="B100" s="3">
+        <v>11.78</v>
+      </c>
+      <c r="C100" s="3">
+        <v>74.06</v>
+      </c>
+      <c r="D100" s="3">
+        <v>14.16</v>
+      </c>
+      <c r="F100" s="2">
+        <v>48</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="H100" s="3">
+        <v>93.14</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>96</v>
+      </c>
+      <c r="B101" s="3">
+        <v>26.79</v>
+      </c>
+      <c r="C101" s="3">
+        <v>33.79</v>
+      </c>
+      <c r="D101" s="3">
+        <v>39.42</v>
+      </c>
+      <c r="F101" s="2">
+        <v>96</v>
+      </c>
+      <c r="G101" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="H101" s="3">
+        <v>85.37</v>
+      </c>
+      <c r="I101" s="3">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>120</v>
+      </c>
+      <c r="B102" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>28.26</v>
+      </c>
+      <c r="D102" s="3">
+        <v>46.54</v>
+      </c>
+      <c r="F102" s="2">
+        <v>120</v>
+      </c>
+      <c r="G102" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>82.89</v>
+      </c>
+      <c r="I102" s="3">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>240</v>
+      </c>
+      <c r="B103" s="3">
+        <v>23.21</v>
+      </c>
+      <c r="C103" s="3">
+        <v>17.73</v>
+      </c>
+      <c r="D103" s="3">
+        <v>59.06</v>
+      </c>
+      <c r="F103" s="2">
+        <v>240</v>
+      </c>
+      <c r="G103" s="3">
+        <v>20.56</v>
+      </c>
+      <c r="H103" s="3">
+        <v>57.97</v>
+      </c>
+      <c r="I103" s="3">
+        <v>21.47</v>
       </c>
     </row>
   </sheetData>

--- a/assign2_results/assignment2_mb_results.xlsx
+++ b/assign2_results/assignment2_mb_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Serial MB" sheetId="2" r:id="rId1"/>
@@ -323,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96283456"/>
-        <c:axId val="96284608"/>
+        <c:axId val="42599552"/>
+        <c:axId val="42600128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96283456"/>
+        <c:axId val="42599552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -368,12 +368,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96284608"/>
+        <c:crossAx val="42600128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96284608"/>
+        <c:axId val="42600128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -420,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96283456"/>
+        <c:crossAx val="42599552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -977,11 +977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96281728"/>
-        <c:axId val="96281152"/>
+        <c:axId val="46483136"/>
+        <c:axId val="46483712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96281728"/>
+        <c:axId val="46483136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1026,12 +1026,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96281152"/>
+        <c:crossAx val="46483712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96281152"/>
+        <c:axId val="46483712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1078,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96281728"/>
+        <c:crossAx val="46483136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1650,11 +1650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117477312"/>
-        <c:axId val="117476736"/>
+        <c:axId val="46486016"/>
+        <c:axId val="46486592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117477312"/>
+        <c:axId val="46486016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1684,12 +1684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117476736"/>
+        <c:crossAx val="46486592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117476736"/>
+        <c:axId val="46486592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117477312"/>
+        <c:crossAx val="46486016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2065,11 +2065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141330112"/>
-        <c:axId val="141330688"/>
+        <c:axId val="46488896"/>
+        <c:axId val="106561536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141330112"/>
+        <c:axId val="46488896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2099,12 +2099,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141330688"/>
+        <c:crossAx val="106561536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141330688"/>
+        <c:axId val="106561536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2141,7 +2141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141330112"/>
+        <c:crossAx val="46488896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -2468,11 +2468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="140651328"/>
-        <c:axId val="141300224"/>
+        <c:axId val="106563840"/>
+        <c:axId val="106564416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140651328"/>
+        <c:axId val="106563840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2502,12 +2502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141300224"/>
+        <c:crossAx val="106564416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141300224"/>
+        <c:axId val="106564416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2544,7 +2544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140651328"/>
+        <c:crossAx val="106563840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -2871,11 +2871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="141334720"/>
-        <c:axId val="141335296"/>
+        <c:axId val="106566720"/>
+        <c:axId val="106567296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141334720"/>
+        <c:axId val="106566720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2905,12 +2905,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141335296"/>
+        <c:crossAx val="106567296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141335296"/>
+        <c:axId val="106567296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2947,7 +2947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141334720"/>
+        <c:crossAx val="106566720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3091,11 +3091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96286912"/>
-        <c:axId val="96287488"/>
+        <c:axId val="42601856"/>
+        <c:axId val="42602432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96286912"/>
+        <c:axId val="42601856"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3141,12 +3141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96287488"/>
+        <c:crossAx val="42602432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96287488"/>
+        <c:axId val="42602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +3192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96286912"/>
+        <c:crossAx val="42601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3616,11 +3616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96311488"/>
-        <c:axId val="96312640"/>
+        <c:axId val="42604160"/>
+        <c:axId val="42604736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96311488"/>
+        <c:axId val="42604160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3661,12 +3661,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96312640"/>
+        <c:crossAx val="42604736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96312640"/>
+        <c:axId val="42604736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3711,7 +3711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96311488"/>
+        <c:crossAx val="42604160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3777,7 +3777,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Roughly by O(n/p) for p≤8</a:t>
+              <a:t> Roughly by O(n/p) for p≤12</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4010,11 +4010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117548736"/>
-        <c:axId val="117549312"/>
+        <c:axId val="45023808"/>
+        <c:axId val="45024384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117548736"/>
+        <c:axId val="45023808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4061,12 +4061,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117549312"/>
+        <c:crossAx val="45024384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117549312"/>
+        <c:axId val="45024384"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4111,7 +4111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117548736"/>
+        <c:crossAx val="45023808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4392,11 +4392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117551616"/>
-        <c:axId val="117552192"/>
+        <c:axId val="45026688"/>
+        <c:axId val="45027264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117551616"/>
+        <c:axId val="45026688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4436,13 +4436,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117552192"/>
+        <c:crossAx val="45027264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117552192"/>
+        <c:axId val="45027264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117551616"/>
+        <c:crossAx val="45026688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4763,11 +4763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117554496"/>
-        <c:axId val="117325824"/>
+        <c:axId val="45029568"/>
+        <c:axId val="45030144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117554496"/>
+        <c:axId val="45029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4804,12 +4804,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117325824"/>
+        <c:crossAx val="45030144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117325824"/>
+        <c:axId val="45030144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4839,7 +4839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117554496"/>
+        <c:crossAx val="45029568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -5106,11 +5106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125255680"/>
-        <c:axId val="140648448"/>
+        <c:axId val="45966464"/>
+        <c:axId val="45967040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125255680"/>
+        <c:axId val="45966464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -5147,12 +5147,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140648448"/>
+        <c:crossAx val="45967040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140648448"/>
+        <c:axId val="45967040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5182,7 +5182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125255680"/>
+        <c:crossAx val="45966464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -5461,11 +5461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117475008"/>
-        <c:axId val="140653056"/>
+        <c:axId val="45969344"/>
+        <c:axId val="45969920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117475008"/>
+        <c:axId val="45969344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -5502,12 +5502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140653056"/>
+        <c:crossAx val="45969920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140653056"/>
+        <c:axId val="45969920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5537,7 +5537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117475008"/>
+        <c:crossAx val="45969344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -6163,11 +6163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117386624"/>
-        <c:axId val="117386048"/>
+        <c:axId val="45972224"/>
+        <c:axId val="45972800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117386624"/>
+        <c:axId val="45972224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6208,12 +6208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117386048"/>
+        <c:crossAx val="45972800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117386048"/>
+        <c:axId val="45972800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6260,7 +6260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117386624"/>
+        <c:crossAx val="45972224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6559,16 +6559,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>171452</xdr:rowOff>
+      <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7035,7 +7035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -7213,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8444,8 +8444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assign2_results/assignment2_mb_results.xlsx
+++ b/assign2_results/assignment2_mb_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Serial MB" sheetId="2" r:id="rId1"/>
@@ -323,11 +323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42599552"/>
-        <c:axId val="42600128"/>
+        <c:axId val="56327488"/>
+        <c:axId val="120217600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42599552"/>
+        <c:axId val="56327488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -368,12 +368,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42600128"/>
+        <c:crossAx val="120217600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42600128"/>
+        <c:axId val="120217600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -420,7 +420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42599552"/>
+        <c:crossAx val="56327488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -977,11 +977,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46483136"/>
-        <c:axId val="46483712"/>
+        <c:axId val="120979456"/>
+        <c:axId val="120980032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46483136"/>
+        <c:axId val="120979456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1026,12 +1026,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46483712"/>
+        <c:crossAx val="120980032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46483712"/>
+        <c:axId val="120980032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1078,7 +1078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46483136"/>
+        <c:crossAx val="120979456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1650,11 +1650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46486016"/>
-        <c:axId val="46486592"/>
+        <c:axId val="120982336"/>
+        <c:axId val="120982912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46486016"/>
+        <c:axId val="120982336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1684,12 +1684,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46486592"/>
+        <c:crossAx val="120982912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46486592"/>
+        <c:axId val="120982912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46486016"/>
+        <c:crossAx val="120982336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2065,11 +2065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46488896"/>
-        <c:axId val="106561536"/>
+        <c:axId val="120985216"/>
+        <c:axId val="120985792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46488896"/>
+        <c:axId val="120985216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2099,12 +2099,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106561536"/>
+        <c:crossAx val="120985792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106561536"/>
+        <c:axId val="120985792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2141,7 +2141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46488896"/>
+        <c:crossAx val="120985216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -2468,11 +2468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106563840"/>
-        <c:axId val="106564416"/>
+        <c:axId val="121905728"/>
+        <c:axId val="121906304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106563840"/>
+        <c:axId val="121905728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2502,12 +2502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106564416"/>
+        <c:crossAx val="121906304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106564416"/>
+        <c:axId val="121906304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2544,7 +2544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106563840"/>
+        <c:crossAx val="121905728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -2871,11 +2871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106566720"/>
-        <c:axId val="106567296"/>
+        <c:axId val="121908608"/>
+        <c:axId val="121909184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106566720"/>
+        <c:axId val="121908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -2905,12 +2905,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106567296"/>
+        <c:crossAx val="121909184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106567296"/>
+        <c:axId val="121909184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2947,7 +2947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106566720"/>
+        <c:crossAx val="121908608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -3091,11 +3091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42601856"/>
-        <c:axId val="42602432"/>
+        <c:axId val="120219328"/>
+        <c:axId val="120219904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42601856"/>
+        <c:axId val="120219328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3141,12 +3141,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42602432"/>
+        <c:crossAx val="120219904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42602432"/>
+        <c:axId val="120219904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,7 +3192,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42601856"/>
+        <c:crossAx val="120219328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3616,11 +3616,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42604160"/>
-        <c:axId val="42604736"/>
+        <c:axId val="120221632"/>
+        <c:axId val="120222208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42604160"/>
+        <c:axId val="120221632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3661,12 +3661,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42604736"/>
+        <c:crossAx val="120222208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42604736"/>
+        <c:axId val="120222208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3711,7 +3711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42604160"/>
+        <c:crossAx val="120221632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4010,11 +4010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45023808"/>
-        <c:axId val="45024384"/>
+        <c:axId val="120224512"/>
+        <c:axId val="120225088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45023808"/>
+        <c:axId val="120224512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4061,12 +4061,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45024384"/>
+        <c:crossAx val="120225088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45024384"/>
+        <c:axId val="120225088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4111,7 +4111,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45023808"/>
+        <c:crossAx val="120224512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4392,11 +4392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45026688"/>
-        <c:axId val="45027264"/>
+        <c:axId val="120702656"/>
+        <c:axId val="120703232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45026688"/>
+        <c:axId val="120702656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4436,13 +4436,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45027264"/>
+        <c:crossAx val="120703232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45027264"/>
+        <c:axId val="120703232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4481,7 +4481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45026688"/>
+        <c:crossAx val="120702656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4763,11 +4763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45029568"/>
-        <c:axId val="45030144"/>
+        <c:axId val="120705536"/>
+        <c:axId val="120706112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45029568"/>
+        <c:axId val="120705536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4804,12 +4804,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45030144"/>
+        <c:crossAx val="120706112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45030144"/>
+        <c:axId val="120706112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4839,7 +4839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45029568"/>
+        <c:crossAx val="120705536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -5106,11 +5106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45966464"/>
-        <c:axId val="45967040"/>
+        <c:axId val="120708416"/>
+        <c:axId val="121085952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45966464"/>
+        <c:axId val="120708416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -5147,12 +5147,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45967040"/>
+        <c:crossAx val="121085952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45967040"/>
+        <c:axId val="121085952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5182,7 +5182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45966464"/>
+        <c:crossAx val="120708416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -5461,11 +5461,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45969344"/>
-        <c:axId val="45969920"/>
+        <c:axId val="121088256"/>
+        <c:axId val="121088832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45969344"/>
+        <c:axId val="121088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -5502,12 +5502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45969920"/>
+        <c:crossAx val="121088832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45969920"/>
+        <c:axId val="121088832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5537,7 +5537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45969344"/>
+        <c:crossAx val="121088256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -6163,11 +6163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="45972224"/>
-        <c:axId val="45972800"/>
+        <c:axId val="121091136"/>
+        <c:axId val="121091712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45972224"/>
+        <c:axId val="121091136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6208,12 +6208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45972800"/>
+        <c:crossAx val="121091712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45972800"/>
+        <c:axId val="121091712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6260,7 +6260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45972224"/>
+        <c:crossAx val="121091136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7035,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7213,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M138"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8444,8 +8444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
